--- a/data/trans_camb/P2C_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R2-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,99</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,05</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,79</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,59; 21,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,12; 7,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,09; -13,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,75; 19,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,18; 4,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,32; -17,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,52; 19,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,75; 4,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,9; -16,49</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,48%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,74; 75,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,55; 27,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,96; -46,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,77; 53,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,07; 11,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,12; -49,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,51; 58,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,58; 14,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,97; -50,94</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,52</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,17</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,24</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,93</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,92; 21,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 7,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,84; -13,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,8; 25,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,84; 12,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,87; -8,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,44; 22,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,79; 8,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,58; -12,64</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,62%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,74; 76,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 26,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,36; -46,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,29; 76,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,75; 40,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,9; -26,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,67; 74,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,28; 28,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,43; -39,84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,13</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,66</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,94</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,55</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,29; 21,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; 7,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,66; -12,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,49; 24,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,18; 11,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,6; 33,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,58; 21,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 7,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,06; 20,27</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,11%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,56; 82,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,69; 30,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,68; -47,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,33; 80,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,16; 35,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,66; 104,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,74; 73,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,48; 27,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,65; 66,62</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>12,58</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,64</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,96</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,15</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,8</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,17; 16,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,65; 4,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,18; -12,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,08; 17,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,3; 6,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,84; -16,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,91; 16,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,3; 3,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,57; -15,37</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,9%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,01%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,67%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,8%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,15%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,02%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,59%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,01; 67,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,62; 17,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,67; -47,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,23; 58,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,56; 21,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,53; -54,02</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,93; 56,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,25; 13,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,29; -53,74</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,62</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,22</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,06</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,16</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,36</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,07</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,37; 17,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 4,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,27; -15,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,45; 19,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,73; 6,38</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,43; -0,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,77; 18,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,38; 4,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,18; -7,18</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,58%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,07%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,4%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,12%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,32%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,26%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,03; 63,77</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 16,23</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,59; -54,22</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,18; 57,83</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,78; 19,03</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,74; 0,86</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,14; 58,5</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,98; 14,9</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,58; -22,66</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P2C_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R2-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,59; 21,13</t>
+          <t>10,67; 20,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 7,73</t>
+          <t>-2,63; 7,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,09; -13,72</t>
+          <t>-21,84; -13,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,75; 19,28</t>
+          <t>8,4; 19,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 4,2</t>
+          <t>-6,64; 3,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-27,32; -17,63</t>
+          <t>-27,1; -17,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,52; 19,07</t>
+          <t>11,49; 19,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 4,58</t>
+          <t>-2,5; 4,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-22,9; -16,49</t>
+          <t>-23,28; -16,53</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,74; 75,47</t>
+          <t>31,62; 72,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 27,27</t>
+          <t>-7,84; 26,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-66,96; -46,88</t>
+          <t>-65,68; -46,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,77; 53,9</t>
+          <t>20,99; 54,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 11,84</t>
+          <t>-16,45; 10,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,12; -49,63</t>
+          <t>-67,42; -49,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,51; 58,36</t>
+          <t>31,96; 59,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 14,05</t>
+          <t>-7,07; 14,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-63,97; -50,94</t>
+          <t>-64,88; -50,78</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,92; 21,86</t>
+          <t>13,09; 21,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 7,51</t>
+          <t>-0,78; 7,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,84; -13,82</t>
+          <t>-26,29; -13,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,8; 25,16</t>
+          <t>16,43; 24,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 12,9</t>
+          <t>4,04; 13,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,87; -8,85</t>
+          <t>-16,12; -8,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,44; 22,98</t>
+          <t>15,73; 22,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 8,88</t>
+          <t>2,59; 8,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-21,58; -12,64</t>
+          <t>-21,55; -12,48</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>39,74; 76,91</t>
+          <t>39,15; 77,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 26,64</t>
+          <t>-2,71; 27,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-80,36; -46,66</t>
+          <t>-79,88; -46,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>42,29; 76,96</t>
+          <t>44,0; 75,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,75; 40,25</t>
+          <t>11,17; 39,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,9; -26,62</t>
+          <t>-43,64; -25,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,67; 74,79</t>
+          <t>45,59; 71,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,28; 28,74</t>
+          <t>7,54; 28,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-64,43; -39,84</t>
+          <t>-65,24; -39,6</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,29; 21,58</t>
+          <t>10,93; 21,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 7,66</t>
+          <t>-2,92; 7,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,66; -12,43</t>
+          <t>-21,59; -12,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,49; 24,78</t>
+          <t>14,25; 24,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 11,12</t>
+          <t>1,12; 11,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 33,19</t>
+          <t>-18,82; 29,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,58; 21,52</t>
+          <t>14,37; 21,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 7,92</t>
+          <t>0,91; 7,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-18,06; 20,27</t>
+          <t>-17,93; 18,91</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>35,56; 82,83</t>
+          <t>34,7; 83,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 30,14</t>
+          <t>-9,02; 28,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-69,68; -47,41</t>
+          <t>-69,59; -47,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>39,33; 80,34</t>
+          <t>39,48; 81,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,16; 35,74</t>
+          <t>2,96; 36,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-54,66; 104,58</t>
+          <t>-55,41; 89,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>43,74; 73,69</t>
+          <t>44,13; 74,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,48; 27,21</t>
+          <t>2,75; 27,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-57,65; 66,62</t>
+          <t>-57,57; 63,41</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,17; 16,93</t>
+          <t>8,58; 17,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 4,21</t>
+          <t>-4,04; 4,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,18; -12,03</t>
+          <t>-18,81; -11,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,08; 17,75</t>
+          <t>9,82; 18,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 6,46</t>
+          <t>-2,35; 6,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-23,84; -16,28</t>
+          <t>-23,73; -16,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,91; 16,29</t>
+          <t>9,99; 16,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 3,91</t>
+          <t>-1,63; 3,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-20,57; -15,37</t>
+          <t>-20,4; -15,19</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>28,01; 67,28</t>
+          <t>29,87; 70,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 17,29</t>
+          <t>-13,86; 18,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-65,67; -47,82</t>
+          <t>-66,62; -47,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>26,23; 58,15</t>
+          <t>27,96; 60,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 21,1</t>
+          <t>-6,81; 20,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-69,53; -54,02</t>
+          <t>-69,54; -54,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>30,93; 56,71</t>
+          <t>31,9; 56,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 13,84</t>
+          <t>-5,01; 13,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-65,29; -53,74</t>
+          <t>-65,08; -53,54</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>13,37; 17,95</t>
+          <t>13,19; 17,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 4,51</t>
+          <t>-0,14; 4,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-20,27; -15,13</t>
+          <t>-20,26; -15,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,45; 19,47</t>
+          <t>14,81; 19,48</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,38</t>
+          <t>2,01; 6,67</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-18,43; -0,03</t>
+          <t>-18,38; 2,2</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>14,77; 18,16</t>
+          <t>14,47; 18,06</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,67</t>
+          <t>1,58; 4,92</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-18,18; -7,18</t>
+          <t>-18,13; -6,23</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>44,03; 63,77</t>
+          <t>42,97; 63,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 16,23</t>
+          <t>-0,4; 15,29</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-68,59; -54,22</t>
+          <t>-67,55; -53,93</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>40,18; 57,83</t>
+          <t>40,97; 58,15</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>4,78; 19,03</t>
+          <t>5,62; 20,09</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-52,74; 0,86</t>
+          <t>-52,56; 6,55</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>45,14; 58,5</t>
+          <t>44,71; 58,58</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>3,98; 14,9</t>
+          <t>4,83; 15,87</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-56,58; -22,66</t>
+          <t>-56,45; -19,62</t>
         </is>
       </c>
     </row>
